--- a/biology/Botanique/Acacia_concinna/Acacia_concinna.xlsx
+++ b/biology/Botanique/Acacia_concinna/Acacia_concinna.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Acacia concinna est un arbuste grimpant originaire d'Asie, commun dans les plaines du centre et du sud de l'Inde.</t>
         </is>
@@ -510,7 +522,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Panneau descriptif en langue siamoise, Jardin botanique de la reine Sirikit, Thaïlande
@@ -546,9 +560,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est envahissante en Nouvelle-Calédonie, où elle a été introduite à la fin des années 1980[1]. Le Code de l'environnement de la Province Sud interdit l’introduction dans la nature de cette espèce ainsi que sa production, son transport, son utilisation, son colportage, sa cession, sa mise en vente, sa vente ou son achat[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est envahissante en Nouvelle-Calédonie, où elle a été introduite à la fin des années 1980. Le Code de l'environnement de la Province Sud interdit l’introduction dans la nature de cette espèce ainsi que sa production, son transport, son utilisation, son colportage, sa cession, sa mise en vente, sa vente ou son achat.
 </t>
         </is>
       </c>
